--- a/data/match_16.xlsx
+++ b/data/match_16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BFE78F-CD04-4405-BAD4-D5C3E0016951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068F3245-9AE4-4392-B34D-22E6872152D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="54">
   <si>
     <t>№</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>3:3</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Муратов Игорь</t>
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1142,7 @@
         <v>17.5</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1216,7 +1213,7 @@
         <v>17.5</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1429,7 +1426,7 @@
         <v>15.5</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1568,70 +1565,70 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1639,13 +1636,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>28</v>
@@ -1654,28 +1651,28 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -1684,19 +1681,19 @@
         <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1713,67 +1710,67 @@
         <v>12.5</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1781,146 +1778,75 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12.5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>25</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>47</v>
-      </c>
       <c r="O18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
         <v>22</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19">
-        <v>6</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>26</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
